--- a/data/collected_data.xlsx
+++ b/data/collected_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33289E05-3780-3546-9506-EA1BD431B3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D17DE-0815-0243-99D2-3BCE251CEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="327">
   <si>
     <t>name</t>
   </si>
@@ -1885,8 +1885,8 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,6 +2414,9 @@
       <c r="D15" s="11" t="s">
         <v>278</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" t="s">
         <v>7</v>
       </c>

--- a/data/collected_data.xlsx
+++ b/data/collected_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rikkeuldbaek/Library/Mobile Documents/com~apple~CloudDocs/Cognitive Science/6th_semester/spatial_analytics/DiscoverAarhus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150D17DE-0815-0243-99D2-3BCE251CEC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04845C7-0D2B-6348-AA18-FC9AF229B657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="500" windowWidth="28580" windowHeight="15440" xr2:uid="{5C004500-1A4C-4740-8589-9D39A3377470}"/>
   </bookViews>
@@ -990,9 +990,6 @@
     <t xml:space="preserve">Disc golf field with 9 holes.  </t>
   </si>
   <si>
-    <t>56.18872749097491, 10.091260207737502</t>
-  </si>
-  <si>
     <t>Tilst Disc Golf Field</t>
   </si>
   <si>
@@ -1420,6 +1417,9 @@
   </si>
   <si>
     <t>The old idyllic Møllestien lane is a picturesque cobbled street right in the centre of Aarhus. The hollyhocks and rambling roses race each other to grow up against the tiny old half-timbered houses with their small-paned windows.</t>
+  </si>
+  <si>
+    <t>56.18716285188887, 10.092160182049241</t>
   </si>
 </sst>
 </file>
@@ -1885,8 +1885,8 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>12</v>
@@ -2016,7 +2016,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -2088,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -2160,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
@@ -2268,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>12</v>
@@ -2304,7 +2304,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -2340,7 +2340,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -2376,7 +2376,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
         <v>131</v>
@@ -2412,7 +2412,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
@@ -2484,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -2592,7 +2592,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>8</v>
@@ -2628,7 +2628,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -2736,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -2772,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2844,7 +2844,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -2880,7 +2880,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>8</v>
@@ -2916,7 +2916,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2952,7 +2952,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>8</v>
@@ -2988,7 +2988,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
@@ -3132,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
@@ -3204,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
@@ -3240,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -3276,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -3312,7 +3312,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>8</v>
@@ -3348,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
@@ -3384,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>12</v>
@@ -3456,7 +3456,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>12</v>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>12</v>
@@ -3528,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>12</v>
@@ -3564,7 +3564,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -3636,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>12</v>
@@ -3672,7 +3672,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>12</v>
@@ -3738,13 +3738,13 @@
         <v>122</v>
       </c>
       <c r="B52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>312</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>313</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>8</v>
@@ -3816,7 +3816,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>8</v>
@@ -3852,7 +3852,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
@@ -3924,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
@@ -3996,7 +3996,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
@@ -4032,7 +4032,7 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>8</v>
@@ -4068,7 +4068,7 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
@@ -4104,7 +4104,7 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
@@ -4176,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>8</v>
@@ -4212,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
@@ -4248,7 +4248,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>8</v>
@@ -4320,7 +4320,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>8</v>
@@ -4608,7 +4608,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>8</v>
@@ -4716,7 +4716,7 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>12</v>
@@ -4752,7 +4752,7 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>12</v>
@@ -4788,7 +4788,7 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>12</v>
@@ -5163,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J91" t="str" cm="1">
         <f t="array" ref="J91:K91">_xlfn.TEXTSPLIT(I91,",")</f>
@@ -5173,9 +5173,9 @@
         <v xml:space="preserve"> 10.18361706830285</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B92" t="s">
         <v>51</v>
@@ -5184,7 +5184,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>8</v>
@@ -5199,19 +5199,19 @@
         <v>7</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f t="array" ref="J92:K92">_xlfn.TEXTSPLIT(I92,",")</f>
-        <v>56.18872749097491</v>
+        <v>56.18716285188887</v>
       </c>
       <c r="K92" t="str">
-        <v xml:space="preserve"> 10.091260207737502</v>
+        <v xml:space="preserve"> 10.092160182049241</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B93" t="s">
         <v>131</v>
@@ -5220,7 +5220,7 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
@@ -5235,7 +5235,7 @@
         <v>7</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f t="array" ref="J93:K93">_xlfn.TEXTSPLIT(I93,",")</f>
@@ -5247,16 +5247,16 @@
     </row>
     <row r="94" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" t="s">
+        <v>311</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
         <v>238</v>
-      </c>
-      <c r="B94" t="s">
-        <v>312</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>239</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
@@ -5271,7 +5271,7 @@
         <v>7</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f t="array" ref="J94:K94">_xlfn.TEXTSPLIT(I94,",")</f>
@@ -5283,16 +5283,16 @@
     </row>
     <row r="95" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
@@ -5307,7 +5307,7 @@
         <v>7</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f t="array" ref="J95:K95">_xlfn.TEXTSPLIT(I95,",")</f>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="96" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
         <v>73</v>
@@ -5328,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>12</v>
@@ -5343,7 +5343,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f t="array" ref="J96:K96">_xlfn.TEXTSPLIT(I96,",")</f>
@@ -5355,16 +5355,16 @@
     </row>
     <row r="97" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
@@ -5379,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f t="array" ref="J97:K97">_xlfn.TEXTSPLIT(I97,",")</f>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="98" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -5400,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>8</v>
@@ -5415,7 +5415,7 @@
         <v>7</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f t="array" ref="J98:K98">_xlfn.TEXTSPLIT(I98,",")</f>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="99" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -5436,7 +5436,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
@@ -5451,7 +5451,7 @@
         <v>7</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f t="array" ref="J99:K99">_xlfn.TEXTSPLIT(I99,",")</f>
@@ -5463,16 +5463,16 @@
     </row>
     <row r="100" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
@@ -5487,7 +5487,7 @@
         <v>7</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f t="array" ref="J100:K100">_xlfn.TEXTSPLIT(I100,",")</f>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="101" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
         <v>73</v>
@@ -5508,7 +5508,7 @@
         <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -5523,7 +5523,7 @@
         <v>7</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f t="array" ref="J101:K101">_xlfn.TEXTSPLIT(I101,",")</f>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="102" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
         <v>73</v>
@@ -5544,7 +5544,7 @@
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -5559,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f t="array" ref="J102:K102">_xlfn.TEXTSPLIT(I102,",")</f>
